--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Lamc2</t>
+  </si>
+  <si>
+    <t>Itgb4</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lamc2</t>
-  </si>
-  <si>
-    <t>Itgb4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H2">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I2">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J2">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N2">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O2">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P2">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q2">
-        <v>2.823586608012</v>
+        <v>5.528530613129333</v>
       </c>
       <c r="R2">
-        <v>25.412279472108</v>
+        <v>49.756775518164</v>
       </c>
       <c r="S2">
-        <v>0.04046199094685818</v>
+        <v>0.0913387458228087</v>
       </c>
       <c r="T2">
-        <v>0.04964195466976724</v>
+        <v>0.1024820296192696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H3">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I3">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J3">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.911572</v>
       </c>
       <c r="O3">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P3">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q3">
-        <v>0.9522714871920001</v>
+        <v>1.804081062974667</v>
       </c>
       <c r="R3">
-        <v>8.570443384728</v>
+        <v>16.236729566772</v>
       </c>
       <c r="S3">
-        <v>0.01364604867595764</v>
+        <v>0.02980584050008782</v>
       </c>
       <c r="T3">
-        <v>0.01674204639813768</v>
+        <v>0.03344213894597239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H4">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I4">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J4">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N4">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O4">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P4">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q4">
-        <v>0.2574429737060001</v>
+        <v>0.5590465244967778</v>
       </c>
       <c r="R4">
-        <v>2.316986763354</v>
+        <v>5.031418720471001</v>
       </c>
       <c r="S4">
-        <v>0.003689157344020152</v>
+        <v>0.009236198906608322</v>
       </c>
       <c r="T4">
-        <v>0.004526148549684939</v>
+        <v>0.01036301080543338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H5">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I5">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J5">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N5">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O5">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P5">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q5">
-        <v>3.10524435141</v>
+        <v>2.73270319894</v>
       </c>
       <c r="R5">
-        <v>18.63146610846</v>
+        <v>16.39621919364</v>
       </c>
       <c r="S5">
-        <v>0.04449814589643355</v>
+        <v>0.04514792453249599</v>
       </c>
       <c r="T5">
-        <v>0.03639588479272904</v>
+        <v>0.03377063331672771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.483258</v>
+        <v>0.9155336666666667</v>
       </c>
       <c r="H6">
-        <v>1.449774</v>
+        <v>2.746601</v>
       </c>
       <c r="I6">
-        <v>0.104155612626562</v>
+        <v>0.1890240037548773</v>
       </c>
       <c r="J6">
-        <v>0.1095883597507648</v>
+        <v>0.1951995261655112</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N6">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O6">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P6">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q6">
-        <v>0.129816468938</v>
+        <v>0.8168400529336667</v>
       </c>
       <c r="R6">
-        <v>1.168348220442</v>
+        <v>7.351560476403001</v>
       </c>
       <c r="S6">
-        <v>0.001860269763292533</v>
+        <v>0.01349529399287644</v>
       </c>
       <c r="T6">
-        <v>0.002282325340445889</v>
+        <v>0.01514171347810812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J7">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N7">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O7">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P7">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q7">
-        <v>20.25173281049267</v>
+        <v>20.93030357095867</v>
       </c>
       <c r="R7">
-        <v>182.265595294434</v>
+        <v>188.372732138628</v>
       </c>
       <c r="S7">
-        <v>0.2902072942658122</v>
+        <v>0.3457967065103952</v>
       </c>
       <c r="T7">
-        <v>0.3560491466102187</v>
+        <v>0.3879837411780486</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J8">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>5.911572</v>
       </c>
       <c r="O8">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P8">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q8">
         <v>6.830018129049334</v>
@@ -948,10 +948,10 @@
         <v>61.470163161444</v>
       </c>
       <c r="S8">
-        <v>0.09787414734164826</v>
+        <v>0.1128410663717561</v>
       </c>
       <c r="T8">
-        <v>0.1200797062126151</v>
+        <v>0.1266076231067814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J9">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N9">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O9">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P9">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q9">
-        <v>1.846469416818556</v>
+        <v>2.116478009585222</v>
       </c>
       <c r="R9">
-        <v>16.618224751367</v>
+        <v>19.048302086267</v>
       </c>
       <c r="S9">
-        <v>0.02645990337784084</v>
+        <v>0.034967057340331</v>
       </c>
       <c r="T9">
-        <v>0.03246309173896914</v>
+        <v>0.03923302179999547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J10">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N10">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O10">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P10">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q10">
-        <v>22.27187887122167</v>
+        <v>10.34566171838</v>
       </c>
       <c r="R10">
-        <v>133.63127322733</v>
+        <v>62.07397031028</v>
       </c>
       <c r="S10">
-        <v>0.319155983634366</v>
+        <v>0.1709242169736299</v>
       </c>
       <c r="T10">
-        <v>0.26104378457255</v>
+        <v>0.1278512604097805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>10.398277</v>
       </c>
       <c r="I11">
-        <v>0.7470398222037985</v>
+        <v>0.7156204889943075</v>
       </c>
       <c r="J11">
-        <v>0.7860053502574217</v>
+        <v>0.7390002200311341</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N11">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O11">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P11">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q11">
-        <v>0.9310882959545556</v>
+        <v>3.092451045892334</v>
       </c>
       <c r="R11">
-        <v>8.379794663591001</v>
+        <v>27.832059413031</v>
       </c>
       <c r="S11">
-        <v>0.01334249358413118</v>
+        <v>0.05109144179819539</v>
       </c>
       <c r="T11">
-        <v>0.0163696211230686</v>
+        <v>0.05732457353652811</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H12">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I12">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J12">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N12">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O12">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P12">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q12">
-        <v>4.031760765525001</v>
+        <v>0.01300309282666667</v>
       </c>
       <c r="R12">
-        <v>24.19056459315</v>
+        <v>0.11702783544</v>
       </c>
       <c r="S12">
-        <v>0.05777512442213611</v>
+        <v>0.0002148285455424156</v>
       </c>
       <c r="T12">
-        <v>0.04725537952182825</v>
+        <v>0.0002410375265065736</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H13">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I13">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J13">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>5.911572</v>
       </c>
       <c r="O13">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P13">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q13">
-        <v>1.35973545465</v>
+        <v>0.004243195013333334</v>
       </c>
       <c r="R13">
-        <v>8.1584127279</v>
+        <v>0.03818875512</v>
       </c>
       <c r="S13">
-        <v>0.01948500658703244</v>
+        <v>7.01032766064555E-05</v>
       </c>
       <c r="T13">
-        <v>0.01593715964206135</v>
+        <v>7.86558432007349E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H14">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I14">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J14">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N14">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O14">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P14">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q14">
-        <v>0.3675993071375001</v>
+        <v>0.001314876295555556</v>
       </c>
       <c r="R14">
-        <v>2.205595842825</v>
+        <v>0.01183388666</v>
       </c>
       <c r="S14">
-        <v>0.00526769740133491</v>
+        <v>2.172352115822056E-05</v>
       </c>
       <c r="T14">
-        <v>0.004308550477320218</v>
+        <v>2.437378046651101E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H15">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I15">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J15">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N15">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O15">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P15">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q15">
-        <v>4.433936011687501</v>
+        <v>0.0064273124</v>
       </c>
       <c r="R15">
-        <v>17.73574404675</v>
+        <v>0.0385638744</v>
       </c>
       <c r="S15">
-        <v>0.06353829496668502</v>
+        <v>0.000106187827238075</v>
       </c>
       <c r="T15">
-        <v>0.03464612464103062</v>
+        <v>7.94284612967304E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6900375000000001</v>
+        <v>0.002153333333333333</v>
       </c>
       <c r="H16">
-        <v>1.380075</v>
+        <v>0.00646</v>
       </c>
       <c r="I16">
-        <v>0.1487223771728586</v>
+        <v>0.0004445840747369229</v>
       </c>
       <c r="J16">
-        <v>0.10431981507672</v>
+        <v>0.0004591088909634862</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N16">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O16">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P16">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q16">
-        <v>0.1853631635375</v>
+        <v>0.001921206153333334</v>
       </c>
       <c r="R16">
-        <v>1.112178981225</v>
+        <v>0.01729085538</v>
       </c>
       <c r="S16">
-        <v>0.002656253795670163</v>
+        <v>3.174090419175621E-05</v>
       </c>
       <c r="T16">
-        <v>0.002172600794479596</v>
+        <v>3.561327949293634E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H17">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I17">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J17">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.842814000000001</v>
+        <v>6.038588</v>
       </c>
       <c r="N17">
-        <v>17.528442</v>
+        <v>18.115764</v>
       </c>
       <c r="O17">
-        <v>0.388476337726801</v>
+        <v>0.4832124175152646</v>
       </c>
       <c r="P17">
-        <v>0.4529856526976698</v>
+        <v>0.5250116720691949</v>
       </c>
       <c r="Q17">
-        <v>0.002228059738666667</v>
+        <v>2.775932865012</v>
       </c>
       <c r="R17">
-        <v>0.020052537648</v>
+        <v>16.655597190072</v>
       </c>
       <c r="S17">
-        <v>3.192809199448036E-05</v>
+        <v>0.04586213663651837</v>
       </c>
       <c r="T17">
-        <v>3.917189585563937E-05</v>
+        <v>0.03430486374537008</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H18">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I18">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J18">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>5.911572</v>
       </c>
       <c r="O18">
-        <v>0.1310159705448037</v>
+        <v>0.157682833439183</v>
       </c>
       <c r="P18">
-        <v>0.1527721232091973</v>
+        <v>0.1713228489992161</v>
       </c>
       <c r="Q18">
-        <v>0.0007514264853333333</v>
+        <v>0.9058479122759999</v>
       </c>
       <c r="R18">
-        <v>0.006762838368</v>
+        <v>5.435087473655999</v>
       </c>
       <c r="S18">
-        <v>1.076794016536063E-05</v>
+        <v>0.01496582329073266</v>
       </c>
       <c r="T18">
-        <v>1.321095638318076E-05</v>
+        <v>0.0111944311032615</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H19">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I19">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J19">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5327236666666667</v>
+        <v>0.6106236666666667</v>
       </c>
       <c r="N19">
-        <v>1.598171</v>
+        <v>1.831871</v>
       </c>
       <c r="O19">
-        <v>0.03541966919485367</v>
+        <v>0.04886257154189607</v>
       </c>
       <c r="P19">
-        <v>0.04130136229777225</v>
+        <v>0.05308932357062435</v>
       </c>
       <c r="Q19">
-        <v>0.0002031452915555556</v>
+        <v>0.280703088943</v>
       </c>
       <c r="R19">
-        <v>0.001828307624</v>
+        <v>1.684218533658</v>
       </c>
       <c r="S19">
-        <v>2.911071657761178E-06</v>
+        <v>0.00463759177379853</v>
       </c>
       <c r="T19">
-        <v>3.571531797948901E-06</v>
+        <v>0.003468917184728993</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H20">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I20">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J20">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.425645</v>
+        <v>2.98482</v>
       </c>
       <c r="N20">
-        <v>12.85129</v>
+        <v>5.96964</v>
       </c>
       <c r="O20">
-        <v>0.4272275374729591</v>
+        <v>0.2388475729836035</v>
       </c>
       <c r="P20">
-        <v>0.3321145135806728</v>
+        <v>0.173005713590172</v>
       </c>
       <c r="Q20">
-        <v>0.002450312626666667</v>
+        <v>1.37211876918</v>
       </c>
       <c r="R20">
-        <v>0.01470187576</v>
+        <v>5.488475076719999</v>
       </c>
       <c r="S20">
-        <v>3.511297547446704E-05</v>
+        <v>0.02266924365023956</v>
       </c>
       <c r="T20">
-        <v>2.871957436323318E-05</v>
+        <v>0.01130439140236708</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0003813333333333334</v>
+        <v>0.459699</v>
       </c>
       <c r="H21">
-        <v>0.001144</v>
+        <v>0.9193979999999999</v>
       </c>
       <c r="I21">
-        <v>8.218799678073065E-05</v>
+        <v>0.09491092317607834</v>
       </c>
       <c r="J21">
-        <v>8.64749150935766E-05</v>
+        <v>0.06534114491239122</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2686276666666667</v>
+        <v>0.892201</v>
       </c>
       <c r="N21">
-        <v>0.805883</v>
+        <v>2.676603</v>
       </c>
       <c r="O21">
-        <v>0.01786048506058254</v>
+        <v>0.07139460452005281</v>
       </c>
       <c r="P21">
-        <v>0.02082634821468766</v>
+        <v>0.07757044177079274</v>
       </c>
       <c r="Q21">
-        <v>0.0001024366835555555</v>
+        <v>0.410143907499</v>
       </c>
       <c r="R21">
-        <v>0.0009219301520000001</v>
+        <v>2.460863444994</v>
       </c>
       <c r="S21">
-        <v>1.467917488661445E-06</v>
+        <v>0.006776127824789227</v>
       </c>
       <c r="T21">
-        <v>1.800956693574376E-06</v>
+        <v>0.005068541476663573</v>
       </c>
     </row>
   </sheetData>
